--- a/config_12.29/fish_3d_yutu_random_3.xlsx
+++ b/config_12.29/fish_3d_yutu_random_3.xlsx
@@ -447,7 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1809,10 +1809,10 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="23">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H17" s="23">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1833,10 +1833,10 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="23">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H18" s="23">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1857,10 +1857,10 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="23">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H19" s="23">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1881,10 +1881,10 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="23">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H20" s="23">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
   </sheetData>
